--- a/public/uploads/excel-formats/customers-po.xlsx
+++ b/public/uploads/excel-formats/customers-po.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tecnofra\Downloads\manish\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\project\public\uploads\excel-formats\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -39,9 +39,6 @@
     <t>PO Number</t>
   </si>
   <si>
-    <t>SKU</t>
-  </si>
-  <si>
     <t>Facility Name</t>
   </si>
   <si>
@@ -64,12 +61,15 @@
   </si>
   <si>
     <t>PO Quantity</t>
+  </si>
+  <si>
+    <t>SKU Code</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -443,25 +443,25 @@
   <dimension ref="A1:O1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.28515625" customWidth="1"/>
-    <col min="2" max="2" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="47.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="189.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.140625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.140625" customWidth="1"/>
-    <col min="10" max="10" width="66.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="4.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.140625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="6" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="7" customWidth="1"/>
+    <col min="12" max="12" width="4.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="5.140625" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="11.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -473,43 +473,43 @@
         <v>5</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>9</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>10</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="N1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/public/uploads/excel-formats/customers-po.xlsx
+++ b/public/uploads/excel-formats/customers-po.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="15">
   <si>
     <t>HSN</t>
   </si>
@@ -440,10 +440,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O1"/>
+  <dimension ref="A1:O2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -512,6 +512,53 @@
         <v>13</v>
       </c>
     </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/public/uploads/excel-formats/customers-po.xlsx
+++ b/public/uploads/excel-formats/customers-po.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>HSN</t>
   </si>
@@ -443,7 +443,7 @@
   <dimension ref="A1:O2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="T28" sqref="T28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -513,51 +513,21 @@
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="O2" s="1" t="s">
-        <v>13</v>
-      </c>
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+      <c r="O2" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/public/uploads/excel-formats/customers-po.xlsx
+++ b/public/uploads/excel-formats/customers-po.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\project\public\uploads\excel-formats\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\headquater\public\uploads\excel-formats\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -126,8 +126,9 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
@@ -136,8 +137,9 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="2"/>
     <cellStyle name="Normal 3" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -440,10 +442,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O2"/>
+  <dimension ref="A1:O1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T28" sqref="T28"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -512,23 +514,6 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
-      <c r="M2" s="1"/>
-      <c r="N2" s="1"/>
-      <c r="O2" s="1"/>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
